--- a/data/データ.xlsx
+++ b/data/データ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/okamotoyuuyuu/Desktop/卒論/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/okamotoyuuyuu/Documents/GitHub/Sotsuron/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E52935F-2DCE-0843-BF41-E173C68B75AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0886639-CE16-0A43-B76C-67392E25A506}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="960" windowWidth="28300" windowHeight="17440" xr2:uid="{E867D359-3C1C-9B45-BE03-55ED4DE73369}"/>
+    <workbookView xWindow="20460" yWindow="1900" windowWidth="28300" windowHeight="17440" xr2:uid="{E867D359-3C1C-9B45-BE03-55ED4DE73369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t xml:space="preserve">cpu </t>
     <phoneticPr fontId="1"/>
@@ -106,12 +106,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>標準偏差</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジュンヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +131,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -150,8 +165,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,24 +486,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A06FB-DBD4-3147-854E-6F1A944C0E20}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -505,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -522,13 +543,13 @@
         <v>16798.416015625</v>
       </c>
       <c r="F3">
-        <v>139340.942138671</v>
+        <v>16436.850097656199</v>
       </c>
       <c r="G3">
-        <v>138780.906982421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>16436.853299999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -545,13 +566,13 @@
         <v>16685.187988281199</v>
       </c>
       <c r="F4">
-        <v>372747.815185546</v>
+        <v>16436.855220000001</v>
       </c>
       <c r="G4">
-        <v>373802.403076171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>16436.857179999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -567,14 +588,15 @@
       <c r="E5">
         <v>16671.79296875</v>
       </c>
-      <c r="F5">
-        <v>1386738.9228515599</v>
+      <c r="F5" s="1">
+        <v>16436.861079999999</v>
       </c>
       <c r="G5">
-        <v>1388307.1821289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>16436.86304</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -590,14 +612,16 @@
       <c r="E6">
         <v>16681.6838378906</v>
       </c>
-      <c r="F6">
-        <v>848471.20483398403</v>
-      </c>
-      <c r="G6">
-        <v>850864.97875976504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="1">
+        <v>16436.87817</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16436.880369999999</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -614,13 +638,14 @@
         <v>16680.13671875</v>
       </c>
       <c r="F7">
-        <v>1092946.8339843701</v>
-      </c>
-      <c r="G7">
-        <v>1088184.40795898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>16436.882570000002</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16436.88452</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6000</v>
       </c>
@@ -637,13 +662,14 @@
         <v>16680.989990234299</v>
       </c>
       <c r="F8">
-        <v>1329177.0019531201</v>
-      </c>
-      <c r="G8">
-        <v>1332176.91699218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>16436.886470000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>16436.88867</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7000</v>
       </c>
@@ -659,14 +685,16 @@
       <c r="E9">
         <v>16678.5578613281</v>
       </c>
-      <c r="F9">
-        <v>1564626.21704101</v>
-      </c>
-      <c r="G9">
-        <v>1568067.0949707001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="1">
+        <v>16436.886699999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>16436.89258</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8000</v>
       </c>
@@ -682,14 +710,16 @@
       <c r="E10">
         <v>16679.349121093699</v>
       </c>
-      <c r="F10">
-        <v>1842835.0009765599</v>
-      </c>
-      <c r="G10">
-        <v>1847277.3930664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="1">
+        <v>16436.890619999998</v>
+      </c>
+      <c r="G10" s="1">
+        <v>16436.896479999999</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9000</v>
       </c>
@@ -705,14 +735,16 @@
       <c r="E11">
         <v>16683.4140625</v>
       </c>
-      <c r="F11">
-        <v>2038490.3081054599</v>
-      </c>
-      <c r="G11">
-        <v>2043286.4238281201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="1">
+        <v>16436.894530000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>16436.899410000002</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -728,19 +760,21 @@
       <c r="E12">
         <v>16679.033935546799</v>
       </c>
-      <c r="F12">
-        <v>2282341.5512695299</v>
-      </c>
-      <c r="G12">
-        <v>2287582.3620605399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="1">
+        <v>16436.89746</v>
+      </c>
+      <c r="G12" s="1">
+        <v>16436.90454</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:G13" si="0">SUM(B3:B12)</f>
+        <f t="shared" ref="B13:E13" si="0">SUM(B3:B12)</f>
         <v>206608.55566406218</v>
       </c>
       <c r="C13">
@@ -756,20 +790,20 @@
         <v>166918.56249999968</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>12897715.79833981</v>
+        <f>SUM(F3:F12)</f>
+        <v>164368.78291765621</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>12918330.069824176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <f>SUM(G3:G12)</f>
+        <v>164368.82008999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:G14" si="1">B13/10000</f>
+        <f t="shared" ref="B14:E14" si="1">B13/10000</f>
         <v>20.660855566406219</v>
       </c>
       <c r="C14">
@@ -785,15 +819,15 @@
         <v>16.691856249999969</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>1289.7715798339809</v>
+        <f>F13/10000</f>
+        <v>16.43687829176562</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>1291.8330069824176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <f>G13/10000</f>
+        <v>16.436882008999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -814,19 +848,48 @@
       </c>
       <c r="F15">
         <f>F13/B13</f>
-        <v>62.425855293771164</v>
+        <v>0.7955565169571861</v>
       </c>
       <c r="G15">
         <f>G13/B13</f>
-        <v>62.525629823524348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.79555669687395514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:G16" si="2">_xlfn.STDEV.P(B3:B12)</f>
+        <v>143.81412943771096</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>188.19018637231406</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>30.182718057370835</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>35.678905943891493</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1.6007641668364332E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1.7278500774461338E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:10">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -846,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -862,8 +925,21 @@
       <c r="E20">
         <v>16788.1770019531</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F20">
+        <v>13864.3410644531</v>
+      </c>
+      <c r="G20">
+        <f>SUM(F20,J20)</f>
+        <v>13864.3449707031</v>
+      </c>
+      <c r="I20">
+        <v>13864.3410644531</v>
+      </c>
+      <c r="J20">
+        <v>3.90625E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -879,8 +955,22 @@
       <c r="E21">
         <v>16682.615966796799</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="F21">
+        <f>SUM(G20,I21)</f>
+        <v>13864.346679687475</v>
+      </c>
+      <c r="G21">
+        <f>SUM(F21,J21)</f>
+        <v>13864.348632812475</v>
+      </c>
+      <c r="I21">
+        <v>1.708984375E-3</v>
+      </c>
+      <c r="J21">
+        <v>1.953125E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -896,8 +986,22 @@
       <c r="E22">
         <v>16674.528808593699</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="F22">
+        <f>SUM(G21,I22)</f>
+        <v>13864.3518066406</v>
+      </c>
+      <c r="G22">
+        <f>SUM(F22,J22)</f>
+        <v>13864.353515624975</v>
+      </c>
+      <c r="I22">
+        <v>3.173828125E-3</v>
+      </c>
+      <c r="J22">
+        <v>1.708984375E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>4000</v>
       </c>
@@ -913,8 +1017,22 @@
       <c r="E23">
         <v>16682.490234375</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23">
+        <f>SUM(G22,I23)</f>
+        <v>13864.355468749975</v>
+      </c>
+      <c r="G23">
+        <f>SUM(F23,J23)</f>
+        <v>13864.357421874975</v>
+      </c>
+      <c r="I23">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="J23">
+        <v>1.953125E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>5000</v>
       </c>
@@ -930,8 +1048,22 @@
       <c r="E24">
         <v>16679.2900390625</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24">
+        <f>SUM(G23,I24)</f>
+        <v>13864.363281249975</v>
+      </c>
+      <c r="G24">
+        <f>SUM(F24,J24)</f>
+        <v>13864.36499023435</v>
+      </c>
+      <c r="I24">
+        <v>5.859375E-3</v>
+      </c>
+      <c r="J24">
+        <v>1.708984375E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>6000</v>
       </c>
@@ -947,8 +1079,22 @@
       <c r="E25">
         <v>16681.180175781199</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25">
+        <f>SUM(F24,I25)</f>
+        <v>13864.365234374975</v>
+      </c>
+      <c r="G25">
+        <f>SUM(F26,J25)</f>
+        <v>13864.3693847656</v>
+      </c>
+      <c r="I25">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="J25">
+        <v>2.197265625E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>7000</v>
       </c>
@@ -964,8 +1110,22 @@
       <c r="E26">
         <v>16679.3146972656</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="F26">
+        <f>SUM(F25,I26)</f>
+        <v>13864.367187499975</v>
+      </c>
+      <c r="G26">
+        <f>SUM(F27,J26)</f>
+        <v>13864.374511718725</v>
+      </c>
+      <c r="I26">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="J26">
+        <v>2.197265625E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>8000</v>
       </c>
@@ -981,8 +1141,22 @@
       <c r="E27">
         <v>16681.438232421799</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="F27">
+        <f>SUM(G25,I27)</f>
+        <v>13864.3723144531</v>
+      </c>
+      <c r="G27">
+        <f>SUM(F28,J27)</f>
+        <v>13864.379394531225</v>
+      </c>
+      <c r="I27">
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="J27">
+        <v>2.9296875E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>9000</v>
       </c>
@@ -998,8 +1172,22 @@
       <c r="E28">
         <v>16678.907714843699</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="F28">
+        <f>SUM(G26,I28)</f>
+        <v>13864.376464843725</v>
+      </c>
+      <c r="G28">
+        <f>SUM(F29,J28)</f>
+        <v>13864.3830566406</v>
+      </c>
+      <c r="I28">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="J28">
+        <v>1.708984375E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>10000</v>
       </c>
@@ -1015,200 +1203,591 @@
       <c r="E29">
         <v>16680.410888671799</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="F29">
+        <f>SUM(G27,I29)</f>
+        <v>13864.381347656225</v>
+      </c>
+      <c r="G29">
+        <f>SUM(J29,G28,I30)</f>
+        <v>13864.387695312475</v>
+      </c>
+      <c r="I29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="J29">
+        <v>2.9296875E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="I30">
+        <v>1.708984375E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <f>SUM(B20:B30)</f>
+        <v>205818.68383789028</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C20:C30)</f>
+        <v>167447.49707031206</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D20:D29)</f>
+        <v>166889.24658203099</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E20:E30)</f>
+        <v>166908.35375976516</v>
+      </c>
+      <c r="F31">
+        <f>SUM(F20:F29)</f>
+        <v>138643.62084960911</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G20:G29)</f>
+        <v>138643.66357421849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:G32" si="3">B31/10000</f>
+        <v>20.581868383789029</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>16.744749707031207</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>16.688924658203099</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>16.690835375976516</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>13.864362084960911</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>13.864366357421849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f>C31/B31</f>
+        <v>0.81356801019191893</v>
+      </c>
+      <c r="D33">
+        <f>D31/B31</f>
+        <v>0.81085566902895256</v>
+      </c>
+      <c r="E33">
+        <f>E31/B31</f>
+        <v>0.81094850403002183</v>
+      </c>
+      <c r="F33">
+        <f>F31/B31</f>
+        <v>0.67362018969477766</v>
+      </c>
+      <c r="G33">
+        <f>G31/B31</f>
+        <v>0.6736203972785042</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:G34" si="4">_xlfn.STDEV.P(B20:B29)</f>
+        <v>140.60941988787388</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>177.02713176859476</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>26.833775422000755</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>32.522277655588418</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>1.2443725752986506E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>1.4134962096620577E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="B32" t="s">
+    <row r="37" spans="1:10">
+      <c r="B37" t="s">
         <v>0</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C37" t="s">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D37" t="s">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E37" t="s">
         <v>3</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F37" t="s">
         <v>4</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
+    <row r="38" spans="1:10">
+      <c r="A38">
         <v>1000</v>
       </c>
-      <c r="B33">
+      <c r="B38">
         <v>20646.6359863281</v>
       </c>
-      <c r="C33">
+      <c r="C38">
         <v>17020.234130859299</v>
       </c>
-      <c r="D33">
+      <c r="D38">
         <v>16765.0207519531</v>
       </c>
-      <c r="E33">
+      <c r="E38">
         <v>16765.196044921799</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="F38">
+        <v>12365.315917968701</v>
+      </c>
+      <c r="G38">
+        <f>SUM(F38,J38)</f>
+        <v>12365.318115234326</v>
+      </c>
+      <c r="I38">
+        <v>12365.315917968701</v>
+      </c>
+      <c r="J38">
+        <v>2.197265625E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
         <v>2000</v>
       </c>
-      <c r="B34">
+      <c r="B39">
         <v>20462.695068359299</v>
       </c>
-      <c r="C34">
+      <c r="C39">
         <v>16696.689208984299</v>
       </c>
-      <c r="D34">
+      <c r="D39">
         <v>16684.100097656199</v>
       </c>
-      <c r="E34">
+      <c r="E39">
         <v>16685.4260253906</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="F39">
+        <f>SUM(G38,I39)</f>
+        <v>12365.320068359326</v>
+      </c>
+      <c r="G39">
+        <f>SUM(F39,J39)</f>
+        <v>12365.322753906201</v>
+      </c>
+      <c r="I39">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="J39">
+        <v>2.685546875E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
         <v>3000</v>
       </c>
-      <c r="B35">
+      <c r="B40">
         <v>20439.8830566406</v>
       </c>
-      <c r="C35">
+      <c r="C40">
         <v>16696.6572265625</v>
       </c>
-      <c r="D35">
+      <c r="D40">
         <v>16675.940917968699</v>
       </c>
-      <c r="E35">
+      <c r="E40">
         <v>16675.481933593699</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="F40">
+        <f>SUM(G39,I40)</f>
+        <v>12365.324707031201</v>
+      </c>
+      <c r="G40">
+        <f>SUM(F40,J40)</f>
+        <v>12365.327880859326</v>
+      </c>
+      <c r="I40">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="J40">
+        <v>3.173828125E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
         <v>4000</v>
       </c>
-      <c r="B36">
+      <c r="B41">
         <v>20488.8039550781</v>
       </c>
-      <c r="C36">
+      <c r="C41">
         <v>16696.6376953125</v>
       </c>
-      <c r="D36">
+      <c r="D41">
         <v>16679.7509765625</v>
       </c>
-      <c r="E36">
+      <c r="E41">
         <v>16680.905761718699</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="F41">
+        <f>SUM(G40,I41)</f>
+        <v>12365.329833984326</v>
+      </c>
+      <c r="G41">
+        <f>SUM(F41,J41)</f>
+        <v>12365.332763671826</v>
+      </c>
+      <c r="I41">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="J41">
+        <v>2.9296875E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
         <v>5000</v>
       </c>
-      <c r="B37">
+      <c r="B42">
         <v>20658.041015625</v>
       </c>
-      <c r="C37">
+      <c r="C42">
         <v>16697.028076171799</v>
       </c>
-      <c r="D37">
+      <c r="D42">
         <v>16680.4140625</v>
       </c>
-      <c r="E37">
+      <c r="E42">
         <v>16678.4221191406</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="F42">
+        <f>SUM(G41,I42)</f>
+        <v>12365.334960937451</v>
+      </c>
+      <c r="G42">
+        <f>SUM(F42,J42)</f>
+        <v>12365.335937499951</v>
+      </c>
+      <c r="I42">
+        <v>2.197265625E-3</v>
+      </c>
+      <c r="J42">
+        <v>9.765625E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
         <v>6000</v>
       </c>
-      <c r="B38">
+      <c r="B43">
         <v>20584.5920410156</v>
       </c>
-      <c r="C38">
+      <c r="C43">
         <v>16697.3291015625</v>
       </c>
-      <c r="D38">
+      <c r="D43">
         <v>16680.417724609299</v>
       </c>
-      <c r="E38">
+      <c r="E43">
         <v>16679.989990234299</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="F43">
+        <f>SUM(G42,I43)</f>
+        <v>12365.337890624951</v>
+      </c>
+      <c r="G43">
+        <f>SUM(F44,J43)</f>
+        <v>12365.341796874951</v>
+      </c>
+      <c r="I43">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="J43">
+        <v>2.9296875E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
         <v>7000</v>
       </c>
-      <c r="B39">
+      <c r="B44">
         <v>20820.236816406199</v>
       </c>
-      <c r="C39">
+      <c r="C44">
         <v>16696.78125</v>
       </c>
-      <c r="D39">
+      <c r="D44">
         <v>16678.272949218699</v>
       </c>
-      <c r="E39">
+      <c r="E44">
         <v>16679.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="F44">
+        <f>SUM(F43,I44)</f>
+        <v>12365.338867187451</v>
+      </c>
+      <c r="G44">
+        <f>SUM(F45,J44)</f>
+        <v>12365.448242187451</v>
+      </c>
+      <c r="I44">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="J44">
+        <v>1.220703125E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
         <v>8000</v>
       </c>
-      <c r="B40">
+      <c r="B45">
         <v>20641.4182128906</v>
       </c>
-      <c r="C40">
+      <c r="C45">
         <v>16696.5549316406</v>
       </c>
-      <c r="D40">
+      <c r="D45">
         <v>16682.4777832031</v>
       </c>
-      <c r="E40">
+      <c r="E45">
         <v>16682.7590332031</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="F45">
+        <f>SUM(G43,I46)</f>
+        <v>12365.436035156201</v>
+      </c>
+      <c r="G45">
+        <f>SUM(F46,J45)</f>
+        <v>12365.544433593701</v>
+      </c>
+      <c r="I45">
+        <v>3.173828125E-3</v>
+      </c>
+      <c r="J45">
+        <v>1.953125E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
         <v>9000</v>
       </c>
-      <c r="B41">
+      <c r="B46">
         <v>20859.518066406199</v>
       </c>
-      <c r="C41">
+      <c r="C46">
         <v>16697.193115234299</v>
       </c>
-      <c r="D41">
+      <c r="D46">
         <v>16678.2919921875</v>
       </c>
-      <c r="E41">
+      <c r="E46">
         <v>16677.374755859299</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="F46">
+        <f>SUM(G44,I46)</f>
+        <v>12365.542480468701</v>
+      </c>
+      <c r="G46">
+        <f>SUM(F47,J46)</f>
+        <v>12365.548095703076</v>
+      </c>
+      <c r="I46">
+        <v>9.423828125E-2</v>
+      </c>
+      <c r="J46">
+        <v>2.9296875E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
         <v>10000</v>
       </c>
-      <c r="B42">
+      <c r="B47">
         <v>20674.106933593699</v>
       </c>
-      <c r="C42">
+      <c r="C47">
         <v>16695.645019531199</v>
       </c>
-      <c r="D42">
+      <c r="D47">
         <v>16681.5500488281</v>
       </c>
-      <c r="E42">
+      <c r="E47">
         <v>16681.3740234375</v>
+      </c>
+      <c r="F47">
+        <f>SUM(G45,I47)</f>
+        <v>12365.545166015576</v>
+      </c>
+      <c r="G47">
+        <f>SUM(G46,I48,J47)</f>
+        <v>12365.554199218701</v>
+      </c>
+      <c r="I47">
+        <v>7.32421875E-4</v>
+      </c>
+      <c r="J47">
+        <v>3.173828125E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:G48" si="5">SUM(B38:B47)</f>
+        <v>206275.93115234337</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>167290.749755859</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="5"/>
+        <v>166886.23730468721</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="5"/>
+        <v>166886.17968749959</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="5"/>
+        <v>123653.82592773391</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>123654.07421874953</v>
+      </c>
+      <c r="I48">
+        <v>2.9296875E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49:G49" si="6">B48/10000</f>
+        <v>20.627593115234337</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="6"/>
+        <v>16.729074975585899</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="6"/>
+        <v>16.68862373046872</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>16.688617968749959</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
+        <v>12.365382592773392</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>12.365407421874954</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <f>C48/B48</f>
+        <v>0.81100470045779505</v>
+      </c>
+      <c r="D50">
+        <f>D48/B48</f>
+        <v>0.80904367452077952</v>
+      </c>
+      <c r="E50">
+        <f>E48/B48</f>
+        <v>0.80904339519983648</v>
+      </c>
+      <c r="F50">
+        <f>F48/B48</f>
+        <v>0.5994583334902529</v>
+      </c>
+      <c r="G50">
+        <f>G48/B48</f>
+        <v>0.59945953717414491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:G51" si="7">_xlfn.STDEV.P(B38:B47)</f>
+        <v>133.44778308381015</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="7"/>
+        <v>97.054024343382466</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="7"/>
+        <v>25.559690821216577</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="7"/>
+        <v>25.662797423643006</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="7"/>
+        <v>8.6901268178072852E-2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="7"/>
+        <v>9.9112482307577798E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data/データ.xlsx
+++ b/data/データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/okamotoyuuyuu/Documents/GitHub/Sotsuron/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0886639-CE16-0A43-B76C-67392E25A506}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6B8C48-A858-2942-92A9-5D606D73B2B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="1900" windowWidth="28300" windowHeight="17440" xr2:uid="{E867D359-3C1C-9B45-BE03-55ED4DE73369}"/>
+    <workbookView xWindow="16720" yWindow="4860" windowWidth="28300" windowHeight="17440" xr2:uid="{E867D359-3C1C-9B45-BE03-55ED4DE73369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t xml:space="preserve">cpu </t>
     <phoneticPr fontId="1"/>
@@ -111,6 +111,24 @@
     <rPh sb="0" eb="4">
       <t>ヒョウジュンヘンサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setinterbal (0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>万回差</t>
+    <rPh sb="0" eb="2">
+      <t>マンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPU</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -486,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A06FB-DBD4-3147-854E-6F1A944C0E20}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -497,7 +515,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,6 +523,9 @@
       <c r="A1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" t="s">
@@ -525,6 +546,15 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
@@ -548,6 +578,15 @@
       <c r="G3">
         <v>16436.853299999999</v>
       </c>
+      <c r="I3">
+        <v>10381.6481933593</v>
+      </c>
+      <c r="J3">
+        <v>10404.6770019531</v>
+      </c>
+      <c r="K3">
+        <v>12715.7868652343</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
@@ -571,6 +610,15 @@
       <c r="G4">
         <v>16436.857179999999</v>
       </c>
+      <c r="I4">
+        <v>9692.4970703125</v>
+      </c>
+      <c r="J4">
+        <v>9574.8271484375</v>
+      </c>
+      <c r="K4">
+        <v>12551.251953125</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
@@ -594,7 +642,15 @@
       <c r="G5">
         <v>16436.86304</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="I5">
+        <v>9697.15576171875</v>
+      </c>
+      <c r="J5">
+        <v>9563.32177734375</v>
+      </c>
+      <c r="K5" s="1">
+        <v>12808.1708984375</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
@@ -618,7 +674,15 @@
       <c r="G6" s="1">
         <v>16436.880369999999</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="I6">
+        <v>9708.85400390625</v>
+      </c>
+      <c r="J6">
+        <v>9622.921875</v>
+      </c>
+      <c r="K6" s="1">
+        <v>12851.2028808593</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12">
@@ -643,6 +707,15 @@
       <c r="G7" s="1">
         <v>16436.88452</v>
       </c>
+      <c r="I7">
+        <v>9728.57666015625</v>
+      </c>
+      <c r="J7">
+        <v>9642.23876953125</v>
+      </c>
+      <c r="K7">
+        <v>13027.2900390625</v>
+      </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
@@ -667,6 +740,15 @@
       <c r="G8" s="1">
         <v>16436.88867</v>
       </c>
+      <c r="I8">
+        <v>9729.5061035156195</v>
+      </c>
+      <c r="J8">
+        <v>9629.1999511718695</v>
+      </c>
+      <c r="K8">
+        <v>12879.598144531201</v>
+      </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
@@ -691,7 +773,15 @@
       <c r="G9" s="1">
         <v>16436.89258</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="I9">
+        <v>9756.5559082031195</v>
+      </c>
+      <c r="J9">
+        <v>9685.5568847656195</v>
+      </c>
+      <c r="K9" s="1">
+        <v>12968.1750488281</v>
+      </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
@@ -716,7 +806,15 @@
       <c r="G10" s="1">
         <v>16436.896479999999</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="I10">
+        <v>9798.16796875</v>
+      </c>
+      <c r="J10">
+        <v>9753.3332519531195</v>
+      </c>
+      <c r="K10" s="1">
+        <v>13360.7067871093</v>
+      </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
@@ -741,7 +839,15 @@
       <c r="G11" s="1">
         <v>16436.899410000002</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="I11">
+        <v>9801.541015625</v>
+      </c>
+      <c r="J11">
+        <v>9708.7399902343695</v>
+      </c>
+      <c r="K11" s="1">
+        <v>12847.179199218701</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
@@ -766,7 +872,15 @@
       <c r="G12" s="1">
         <v>16436.90454</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="I12">
+        <v>9800.2919921875</v>
+      </c>
+      <c r="J12">
+        <v>9686.0202636718695</v>
+      </c>
+      <c r="K12" s="1">
+        <v>12643.6008300781</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
@@ -797,6 +911,18 @@
         <f>SUM(G3:G12)</f>
         <v>164368.82008999999</v>
       </c>
+      <c r="I13">
+        <f>SUM(I3:I12)</f>
+        <v>98094.794677734288</v>
+      </c>
+      <c r="J13">
+        <f>SUM(J3:J12)</f>
+        <v>97270.836914062456</v>
+      </c>
+      <c r="K13">
+        <f>SUM(K3:K12)</f>
+        <v>128652.96264648401</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
@@ -826,6 +952,14 @@
         <f>G13/10000</f>
         <v>16.436882008999998</v>
       </c>
+      <c r="I14">
+        <f>I13/10000</f>
+        <v>9.8094794677734285</v>
+      </c>
+      <c r="J14">
+        <f>J13/10000</f>
+        <v>9.7270836914062464</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
@@ -854,6 +988,18 @@
         <f>G13/B13</f>
         <v>0.79555669687395514</v>
       </c>
+      <c r="I15">
+        <f>I13/B13</f>
+        <v>0.47478573364228327</v>
+      </c>
+      <c r="J15">
+        <f>J13/B13</f>
+        <v>0.4707977198786541</v>
+      </c>
+      <c r="K15">
+        <f>K13/B13</f>
+        <v>0.62268942461254573</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
@@ -884,239 +1030,225 @@
         <v>1.7278500774461338E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <f>D13-E13</f>
+        <v>-17.489013672020519</v>
+      </c>
+      <c r="F17">
+        <f>F13-G13</f>
+        <v>-3.7172343785641715E-2</v>
+      </c>
+      <c r="I17">
+        <f>I13-J13</f>
+        <v>823.95776367183134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="B19" t="s">
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>4</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>1000</v>
-      </c>
-      <c r="B20">
-        <v>20680.105957031199</v>
-      </c>
-      <c r="C20">
-        <v>17275.3391113281</v>
-      </c>
-      <c r="D20">
-        <v>16769.0998535156</v>
-      </c>
-      <c r="E20">
-        <v>16788.1770019531</v>
-      </c>
-      <c r="F20">
-        <v>13864.3410644531</v>
-      </c>
-      <c r="G20">
-        <f>SUM(F20,J20)</f>
-        <v>13864.3449707031</v>
-      </c>
-      <c r="I20">
-        <v>13864.3410644531</v>
-      </c>
-      <c r="J20">
-        <v>3.90625E-3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="B21">
-        <v>20608.0061035156</v>
+        <v>20680.105957031199</v>
       </c>
       <c r="C21">
-        <v>16696.9309082031</v>
+        <v>17275.3391113281</v>
       </c>
       <c r="D21">
-        <v>16684.479003906199</v>
+        <v>16769.0998535156</v>
       </c>
       <c r="E21">
-        <v>16682.615966796799</v>
+        <v>16788.1770019531</v>
       </c>
       <c r="F21">
-        <f>SUM(G20,I21)</f>
-        <v>13864.346679687475</v>
+        <v>13864.3410644531</v>
       </c>
       <c r="G21">
         <f>SUM(F21,J21)</f>
-        <v>13864.348632812475</v>
+        <v>13864.3449707031</v>
       </c>
       <c r="I21">
-        <v>1.708984375E-3</v>
+        <v>13864.3410644531</v>
       </c>
       <c r="J21">
-        <v>1.953125E-3</v>
+        <v>3.90625E-3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B22">
-        <v>20430.4221191406</v>
+        <v>20608.0061035156</v>
       </c>
       <c r="C22">
-        <v>16697.033935546799</v>
+        <v>16696.9309082031</v>
       </c>
       <c r="D22">
-        <v>16675.4482421875</v>
+        <v>16684.479003906199</v>
       </c>
       <c r="E22">
-        <v>16674.528808593699</v>
+        <v>16682.615966796799</v>
       </c>
       <c r="F22">
         <f>SUM(G21,I22)</f>
-        <v>13864.3518066406</v>
+        <v>13864.346679687475</v>
       </c>
       <c r="G22">
         <f>SUM(F22,J22)</f>
-        <v>13864.353515624975</v>
+        <v>13864.348632812475</v>
       </c>
       <c r="I22">
-        <v>3.173828125E-3</v>
+        <v>1.708984375E-3</v>
       </c>
       <c r="J22">
-        <v>1.708984375E-3</v>
+        <v>1.953125E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="B23">
-        <v>20380.16015625</v>
+        <v>20430.4221191406</v>
       </c>
       <c r="C23">
-        <v>16680.5090332031</v>
+        <v>16697.033935546799</v>
       </c>
       <c r="D23">
-        <v>16680.106933593699</v>
+        <v>16675.4482421875</v>
       </c>
       <c r="E23">
-        <v>16682.490234375</v>
+        <v>16674.528808593699</v>
       </c>
       <c r="F23">
         <f>SUM(G22,I23)</f>
-        <v>13864.355468749975</v>
+        <v>13864.3518066406</v>
       </c>
       <c r="G23">
         <f>SUM(F23,J23)</f>
-        <v>13864.357421874975</v>
+        <v>13864.353515624975</v>
       </c>
       <c r="I23">
-        <v>1.953125E-3</v>
+        <v>3.173828125E-3</v>
       </c>
       <c r="J23">
-        <v>1.953125E-3</v>
+        <v>1.708984375E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B24">
-        <v>20485.5568847656</v>
+        <v>20380.16015625</v>
       </c>
       <c r="C24">
-        <v>16679.387207031199</v>
+        <v>16680.5090332031</v>
       </c>
       <c r="D24">
-        <v>16681.7919921875</v>
+        <v>16680.106933593699</v>
       </c>
       <c r="E24">
-        <v>16679.2900390625</v>
+        <v>16682.490234375</v>
       </c>
       <c r="F24">
         <f>SUM(G23,I24)</f>
-        <v>13864.363281249975</v>
+        <v>13864.355468749975</v>
       </c>
       <c r="G24">
         <f>SUM(F24,J24)</f>
-        <v>13864.36499023435</v>
+        <v>13864.357421874975</v>
       </c>
       <c r="I24">
-        <v>5.859375E-3</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="J24">
-        <v>1.708984375E-3</v>
+        <v>1.953125E-3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="B25">
-        <v>20572.4719238281</v>
+        <v>20485.5568847656</v>
       </c>
       <c r="C25">
-        <v>16680.6350097656</v>
+        <v>16679.387207031199</v>
       </c>
       <c r="D25">
-        <v>16678.29296875</v>
+        <v>16681.7919921875</v>
       </c>
       <c r="E25">
-        <v>16681.180175781199</v>
+        <v>16679.2900390625</v>
       </c>
       <c r="F25">
-        <f>SUM(F24,I25)</f>
-        <v>13864.365234374975</v>
+        <f>SUM(G24,I25)</f>
+        <v>13864.363281249975</v>
       </c>
       <c r="G25">
-        <f>SUM(F26,J25)</f>
-        <v>13864.3693847656</v>
+        <f>SUM(F25,J25)</f>
+        <v>13864.36499023435</v>
       </c>
       <c r="I25">
-        <v>1.953125E-3</v>
+        <v>5.859375E-3</v>
       </c>
       <c r="J25">
-        <v>2.197265625E-3</v>
+        <v>1.708984375E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="B26">
-        <v>20444.803222656199</v>
+        <v>20572.4719238281</v>
       </c>
       <c r="C26">
-        <v>16680.4279785156</v>
+        <v>16680.6350097656</v>
       </c>
       <c r="D26">
-        <v>16679.0842285156</v>
+        <v>16678.29296875</v>
       </c>
       <c r="E26">
-        <v>16679.3146972656</v>
+        <v>16681.180175781199</v>
       </c>
       <c r="F26">
         <f>SUM(F25,I26)</f>
-        <v>13864.367187499975</v>
+        <v>13864.365234374975</v>
       </c>
       <c r="G26">
         <f>SUM(F27,J26)</f>
-        <v>13864.374511718725</v>
+        <v>13864.3693847656</v>
       </c>
       <c r="I26">
         <v>1.953125E-3</v>
@@ -1127,665 +1259,696 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="B27">
-        <v>20626.725341796799</v>
+        <v>20444.803222656199</v>
       </c>
       <c r="C27">
-        <v>16679.199951171799</v>
+        <v>16680.4279785156</v>
       </c>
       <c r="D27">
-        <v>16682.6711425781</v>
+        <v>16679.0842285156</v>
       </c>
       <c r="E27">
-        <v>16681.438232421799</v>
+        <v>16679.3146972656</v>
       </c>
       <c r="F27">
-        <f>SUM(G25,I27)</f>
-        <v>13864.3723144531</v>
+        <f>SUM(F26,I27)</f>
+        <v>13864.367187499975</v>
       </c>
       <c r="G27">
         <f>SUM(F28,J27)</f>
-        <v>13864.379394531225</v>
+        <v>13864.374511718725</v>
       </c>
       <c r="I27">
-        <v>2.9296875E-3</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="J27">
-        <v>2.9296875E-3</v>
+        <v>2.197265625E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="B28">
-        <v>20830.968261718699</v>
+        <v>20626.725341796799</v>
       </c>
       <c r="C28">
-        <v>16697.4240722656</v>
+        <v>16679.199951171799</v>
       </c>
       <c r="D28">
-        <v>16678.1760253906</v>
+        <v>16682.6711425781</v>
       </c>
       <c r="E28">
-        <v>16678.907714843699</v>
+        <v>16681.438232421799</v>
       </c>
       <c r="F28">
         <f>SUM(G26,I28)</f>
-        <v>13864.376464843725</v>
+        <v>13864.3723144531</v>
       </c>
       <c r="G28">
         <f>SUM(F29,J28)</f>
-        <v>13864.3830566406</v>
+        <v>13864.379394531225</v>
       </c>
       <c r="I28">
-        <v>1.953125E-3</v>
+        <v>2.9296875E-3</v>
       </c>
       <c r="J28">
-        <v>1.708984375E-3</v>
+        <v>2.9296875E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="B29">
-        <v>20759.4638671875</v>
+        <v>20830.968261718699</v>
       </c>
       <c r="C29">
-        <v>16680.609863281199</v>
+        <v>16697.4240722656</v>
       </c>
       <c r="D29">
-        <v>16680.096191406199</v>
+        <v>16678.1760253906</v>
       </c>
       <c r="E29">
-        <v>16680.410888671799</v>
+        <v>16678.907714843699</v>
       </c>
       <c r="F29">
         <f>SUM(G27,I29)</f>
-        <v>13864.381347656225</v>
+        <v>13864.376464843725</v>
       </c>
       <c r="G29">
-        <f>SUM(J29,G28,I30)</f>
-        <v>13864.387695312475</v>
+        <f>SUM(F30,J29)</f>
+        <v>13864.3830566406</v>
       </c>
       <c r="I29">
         <v>1.953125E-3</v>
       </c>
       <c r="J29">
+        <v>1.708984375E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>10000</v>
+      </c>
+      <c r="B30">
+        <v>20759.4638671875</v>
+      </c>
+      <c r="C30">
+        <v>16680.609863281199</v>
+      </c>
+      <c r="D30">
+        <v>16680.096191406199</v>
+      </c>
+      <c r="E30">
+        <v>16680.410888671799</v>
+      </c>
+      <c r="F30">
+        <f>SUM(G28,I30)</f>
+        <v>13864.381347656225</v>
+      </c>
+      <c r="G30">
+        <f>SUM(J30,G29,I31)</f>
+        <v>13864.387695312475</v>
+      </c>
+      <c r="I30">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="J30">
         <v>2.9296875E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="I30">
+    <row r="31" spans="1:10">
+      <c r="I31">
         <v>1.708984375E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31">
-        <f>SUM(B20:B30)</f>
-        <v>205818.68383789028</v>
-      </c>
-      <c r="C31">
-        <f>SUM(C20:C30)</f>
-        <v>167447.49707031206</v>
-      </c>
-      <c r="D31">
-        <f>SUM(D20:D29)</f>
-        <v>166889.24658203099</v>
-      </c>
-      <c r="E31">
-        <f>SUM(E20:E30)</f>
-        <v>166908.35375976516</v>
-      </c>
-      <c r="F31">
-        <f>SUM(F20:F29)</f>
-        <v>138643.62084960911</v>
-      </c>
-      <c r="G31">
-        <f>SUM(G20:G29)</f>
-        <v>138643.66357421849</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <f>SUM(B21:B31)</f>
+        <v>205818.68383789028</v>
+      </c>
+      <c r="C32">
+        <f>SUM(C21:C31)</f>
+        <v>167447.49707031206</v>
+      </c>
+      <c r="D32">
+        <f>SUM(D21:D30)</f>
+        <v>166889.24658203099</v>
+      </c>
+      <c r="E32">
+        <f>SUM(E21:E31)</f>
+        <v>166908.35375976516</v>
+      </c>
+      <c r="F32">
+        <f>SUM(F21:F30)</f>
+        <v>138643.62084960911</v>
+      </c>
+      <c r="G32">
+        <f>SUM(G21:G30)</f>
+        <v>138643.66357421849</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
         <v>10</v>
       </c>
-      <c r="B32">
-        <f t="shared" ref="B32:G32" si="3">B31/10000</f>
+      <c r="B33">
+        <f t="shared" ref="B33:G33" si="3">B32/10000</f>
         <v>20.581868383789029</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <f t="shared" si="3"/>
         <v>16.744749707031207</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <f t="shared" si="3"/>
         <v>16.688924658203099</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <f t="shared" si="3"/>
         <v>16.690835375976516</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <f t="shared" si="3"/>
         <v>13.864362084960911</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <f t="shared" si="3"/>
         <v>13.864366357421849</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <f>C31/B31</f>
-        <v>0.81356801019191893</v>
-      </c>
-      <c r="D33">
-        <f>D31/B31</f>
-        <v>0.81085566902895256</v>
-      </c>
-      <c r="E33">
-        <f>E31/B31</f>
-        <v>0.81094850403002183</v>
-      </c>
-      <c r="F33">
-        <f>F31/B31</f>
-        <v>0.67362018969477766</v>
-      </c>
-      <c r="G33">
-        <f>G31/B31</f>
-        <v>0.6736203972785042</v>
-      </c>
-    </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f>C32/B32</f>
+        <v>0.81356801019191893</v>
+      </c>
+      <c r="D34">
+        <f>D32/B32</f>
+        <v>0.81085566902895256</v>
+      </c>
+      <c r="E34">
+        <f>E32/B32</f>
+        <v>0.81094850403002183</v>
+      </c>
+      <c r="F34">
+        <f>F32/B32</f>
+        <v>0.67362018969477766</v>
+      </c>
+      <c r="G34">
+        <f>G32/B32</f>
+        <v>0.6736203972785042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
         <v>12</v>
       </c>
-      <c r="B34">
-        <f t="shared" ref="B34:G34" si="4">_xlfn.STDEV.P(B20:B29)</f>
+      <c r="B35">
+        <f t="shared" ref="B35:G35" si="4">_xlfn.STDEV.P(B21:B30)</f>
         <v>140.60941988787388</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <f t="shared" si="4"/>
         <v>177.02713176859476</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <f t="shared" si="4"/>
         <v>26.833775422000755</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <f t="shared" si="4"/>
         <v>32.522277655588418</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <f t="shared" si="4"/>
         <v>1.2443725752986506E-2</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <f t="shared" si="4"/>
         <v>1.4134962096620577E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="B37" t="s">
+    <row r="38" spans="1:10">
+      <c r="B38" t="s">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>2</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>3</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>4</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
-        <v>1000</v>
-      </c>
-      <c r="B38">
-        <v>20646.6359863281</v>
-      </c>
-      <c r="C38">
-        <v>17020.234130859299</v>
-      </c>
-      <c r="D38">
-        <v>16765.0207519531</v>
-      </c>
-      <c r="E38">
-        <v>16765.196044921799</v>
-      </c>
-      <c r="F38">
-        <v>12365.315917968701</v>
-      </c>
-      <c r="G38">
-        <f>SUM(F38,J38)</f>
-        <v>12365.318115234326</v>
-      </c>
-      <c r="I38">
-        <v>12365.315917968701</v>
-      </c>
-      <c r="J38">
-        <v>2.197265625E-3</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="B39">
-        <v>20462.695068359299</v>
+        <v>20646.6359863281</v>
       </c>
       <c r="C39">
-        <v>16696.689208984299</v>
+        <v>17020.234130859299</v>
       </c>
       <c r="D39">
-        <v>16684.100097656199</v>
+        <v>16765.0207519531</v>
       </c>
       <c r="E39">
-        <v>16685.4260253906</v>
+        <v>16765.196044921799</v>
       </c>
       <c r="F39">
-        <f>SUM(G38,I39)</f>
-        <v>12365.320068359326</v>
+        <v>12365.315917968701</v>
       </c>
       <c r="G39">
         <f>SUM(F39,J39)</f>
-        <v>12365.322753906201</v>
+        <v>12365.318115234326</v>
       </c>
       <c r="I39">
-        <v>1.953125E-3</v>
+        <v>12365.315917968701</v>
       </c>
       <c r="J39">
-        <v>2.685546875E-3</v>
+        <v>2.197265625E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B40">
-        <v>20439.8830566406</v>
+        <v>20462.695068359299</v>
       </c>
       <c r="C40">
-        <v>16696.6572265625</v>
+        <v>16696.689208984299</v>
       </c>
       <c r="D40">
-        <v>16675.940917968699</v>
+        <v>16684.100097656199</v>
       </c>
       <c r="E40">
-        <v>16675.481933593699</v>
+        <v>16685.4260253906</v>
       </c>
       <c r="F40">
         <f>SUM(G39,I40)</f>
-        <v>12365.324707031201</v>
+        <v>12365.320068359326</v>
       </c>
       <c r="G40">
         <f>SUM(F40,J40)</f>
-        <v>12365.327880859326</v>
+        <v>12365.322753906201</v>
       </c>
       <c r="I40">
         <v>1.953125E-3</v>
       </c>
       <c r="J40">
-        <v>3.173828125E-3</v>
+        <v>2.685546875E-3</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="B41">
-        <v>20488.8039550781</v>
+        <v>20439.8830566406</v>
       </c>
       <c r="C41">
-        <v>16696.6376953125</v>
+        <v>16696.6572265625</v>
       </c>
       <c r="D41">
-        <v>16679.7509765625</v>
+        <v>16675.940917968699</v>
       </c>
       <c r="E41">
-        <v>16680.905761718699</v>
+        <v>16675.481933593699</v>
       </c>
       <c r="F41">
         <f>SUM(G40,I41)</f>
-        <v>12365.329833984326</v>
+        <v>12365.324707031201</v>
       </c>
       <c r="G41">
         <f>SUM(F41,J41)</f>
-        <v>12365.332763671826</v>
+        <v>12365.327880859326</v>
       </c>
       <c r="I41">
         <v>1.953125E-3</v>
       </c>
       <c r="J41">
-        <v>2.9296875E-3</v>
+        <v>3.173828125E-3</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B42">
-        <v>20658.041015625</v>
+        <v>20488.8039550781</v>
       </c>
       <c r="C42">
-        <v>16697.028076171799</v>
+        <v>16696.6376953125</v>
       </c>
       <c r="D42">
-        <v>16680.4140625</v>
+        <v>16679.7509765625</v>
       </c>
       <c r="E42">
-        <v>16678.4221191406</v>
+        <v>16680.905761718699</v>
       </c>
       <c r="F42">
         <f>SUM(G41,I42)</f>
-        <v>12365.334960937451</v>
+        <v>12365.329833984326</v>
       </c>
       <c r="G42">
         <f>SUM(F42,J42)</f>
-        <v>12365.335937499951</v>
+        <v>12365.332763671826</v>
       </c>
       <c r="I42">
-        <v>2.197265625E-3</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="J42">
-        <v>9.765625E-4</v>
+        <v>2.9296875E-3</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="B43">
-        <v>20584.5920410156</v>
+        <v>20658.041015625</v>
       </c>
       <c r="C43">
-        <v>16697.3291015625</v>
+        <v>16697.028076171799</v>
       </c>
       <c r="D43">
-        <v>16680.417724609299</v>
+        <v>16680.4140625</v>
       </c>
       <c r="E43">
-        <v>16679.989990234299</v>
+        <v>16678.4221191406</v>
       </c>
       <c r="F43">
         <f>SUM(G42,I43)</f>
-        <v>12365.337890624951</v>
+        <v>12365.334960937451</v>
       </c>
       <c r="G43">
-        <f>SUM(F44,J43)</f>
-        <v>12365.341796874951</v>
+        <f>SUM(F43,J43)</f>
+        <v>12365.335937499951</v>
       </c>
       <c r="I43">
-        <v>1.953125E-3</v>
+        <v>2.197265625E-3</v>
       </c>
       <c r="J43">
-        <v>2.9296875E-3</v>
+        <v>9.765625E-4</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="B44">
-        <v>20820.236816406199</v>
+        <v>20584.5920410156</v>
       </c>
       <c r="C44">
-        <v>16696.78125</v>
+        <v>16697.3291015625</v>
       </c>
       <c r="D44">
-        <v>16678.272949218699</v>
+        <v>16680.417724609299</v>
       </c>
       <c r="E44">
-        <v>16679.25</v>
+        <v>16679.989990234299</v>
       </c>
       <c r="F44">
-        <f>SUM(F43,I44)</f>
-        <v>12365.338867187451</v>
+        <f>SUM(G43,I44)</f>
+        <v>12365.337890624951</v>
       </c>
       <c r="G44">
         <f>SUM(F45,J44)</f>
-        <v>12365.448242187451</v>
+        <v>12365.341796874951</v>
       </c>
       <c r="I44">
-        <v>9.765625E-4</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="J44">
-        <v>1.220703125E-2</v>
+        <v>2.9296875E-3</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="B45">
-        <v>20641.4182128906</v>
+        <v>20820.236816406199</v>
       </c>
       <c r="C45">
-        <v>16696.5549316406</v>
+        <v>16696.78125</v>
       </c>
       <c r="D45">
-        <v>16682.4777832031</v>
+        <v>16678.272949218699</v>
       </c>
       <c r="E45">
-        <v>16682.7590332031</v>
+        <v>16679.25</v>
       </c>
       <c r="F45">
-        <f>SUM(G43,I46)</f>
-        <v>12365.436035156201</v>
+        <f>SUM(F44,I45)</f>
+        <v>12365.338867187451</v>
       </c>
       <c r="G45">
         <f>SUM(F46,J45)</f>
-        <v>12365.544433593701</v>
+        <v>12365.448242187451</v>
       </c>
       <c r="I45">
-        <v>3.173828125E-3</v>
+        <v>9.765625E-4</v>
       </c>
       <c r="J45">
-        <v>1.953125E-3</v>
+        <v>1.220703125E-2</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="B46">
-        <v>20859.518066406199</v>
+        <v>20641.4182128906</v>
       </c>
       <c r="C46">
-        <v>16697.193115234299</v>
+        <v>16696.5549316406</v>
       </c>
       <c r="D46">
-        <v>16678.2919921875</v>
+        <v>16682.4777832031</v>
       </c>
       <c r="E46">
-        <v>16677.374755859299</v>
+        <v>16682.7590332031</v>
       </c>
       <c r="F46">
-        <f>SUM(G44,I46)</f>
-        <v>12365.542480468701</v>
+        <f>SUM(G44,I47)</f>
+        <v>12365.436035156201</v>
       </c>
       <c r="G46">
         <f>SUM(F47,J46)</f>
-        <v>12365.548095703076</v>
+        <v>12365.544433593701</v>
       </c>
       <c r="I46">
-        <v>9.423828125E-2</v>
+        <v>3.173828125E-3</v>
       </c>
       <c r="J46">
-        <v>2.9296875E-3</v>
+        <v>1.953125E-3</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="B47">
-        <v>20674.106933593699</v>
+        <v>20859.518066406199</v>
       </c>
       <c r="C47">
-        <v>16695.645019531199</v>
+        <v>16697.193115234299</v>
       </c>
       <c r="D47">
-        <v>16681.5500488281</v>
+        <v>16678.2919921875</v>
       </c>
       <c r="E47">
-        <v>16681.3740234375</v>
+        <v>16677.374755859299</v>
       </c>
       <c r="F47">
         <f>SUM(G45,I47)</f>
+        <v>12365.542480468701</v>
+      </c>
+      <c r="G47">
+        <f>SUM(F48,J47)</f>
+        <v>12365.548095703076</v>
+      </c>
+      <c r="I47">
+        <v>9.423828125E-2</v>
+      </c>
+      <c r="J47">
+        <v>2.9296875E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>10000</v>
+      </c>
+      <c r="B48">
+        <v>20674.106933593699</v>
+      </c>
+      <c r="C48">
+        <v>16695.645019531199</v>
+      </c>
+      <c r="D48">
+        <v>16681.5500488281</v>
+      </c>
+      <c r="E48">
+        <v>16681.3740234375</v>
+      </c>
+      <c r="F48">
+        <f>SUM(G46,I48)</f>
         <v>12365.545166015576</v>
       </c>
-      <c r="G47">
-        <f>SUM(G46,I48,J47)</f>
+      <c r="G48">
+        <f>SUM(G47,I49,J48)</f>
         <v>12365.554199218701</v>
       </c>
-      <c r="I47">
+      <c r="I48">
         <v>7.32421875E-4</v>
       </c>
-      <c r="J47">
+      <c r="J48">
         <v>3.173828125E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
         <v>9</v>
       </c>
-      <c r="B48">
-        <f t="shared" ref="B48:G48" si="5">SUM(B38:B47)</f>
+      <c r="B49">
+        <f t="shared" ref="B49:G49" si="5">SUM(B39:B48)</f>
         <v>206275.93115234337</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <f t="shared" si="5"/>
         <v>167290.749755859</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <f t="shared" si="5"/>
         <v>166886.23730468721</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <f t="shared" si="5"/>
         <v>166886.17968749959</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <f t="shared" si="5"/>
         <v>123653.82592773391</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <f t="shared" si="5"/>
         <v>123654.07421874953</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>2.9296875E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="B49">
-        <f t="shared" ref="B49:G49" si="6">B48/10000</f>
+      <c r="B50">
+        <f t="shared" ref="B50:G50" si="6">B49/10000</f>
         <v>20.627593115234337</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <f t="shared" si="6"/>
         <v>16.729074975585899</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <f t="shared" si="6"/>
         <v>16.68862373046872</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <f t="shared" si="6"/>
         <v>16.688617968749959</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <f t="shared" si="6"/>
         <v>12.365382592773392</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <f t="shared" si="6"/>
         <v>12.365407421874954</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>1</v>
       </c>
-      <c r="C50">
-        <f>C48/B48</f>
+      <c r="C51">
+        <f>C49/B49</f>
         <v>0.81100470045779505</v>
       </c>
-      <c r="D50">
-        <f>D48/B48</f>
+      <c r="D51">
+        <f>D49/B49</f>
         <v>0.80904367452077952</v>
       </c>
-      <c r="E50">
-        <f>E48/B48</f>
+      <c r="E51">
+        <f>E49/B49</f>
         <v>0.80904339519983648</v>
       </c>
-      <c r="F50">
-        <f>F48/B48</f>
+      <c r="F51">
+        <f>F49/B49</f>
         <v>0.5994583334902529</v>
       </c>
-      <c r="G50">
-        <f>G48/B48</f>
+      <c r="G51">
+        <f>G49/B49</f>
         <v>0.59945953717414491</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B51">
-        <f t="shared" ref="B51:G51" si="7">_xlfn.STDEV.P(B38:B47)</f>
+      <c r="B52">
+        <f t="shared" ref="B52:G52" si="7">_xlfn.STDEV.P(B39:B48)</f>
         <v>133.44778308381015</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <f t="shared" si="7"/>
         <v>97.054024343382466</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <f t="shared" si="7"/>
         <v>25.559690821216577</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <f t="shared" si="7"/>
         <v>25.662797423643006</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <f t="shared" si="7"/>
         <v>8.6901268178072852E-2</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <f t="shared" si="7"/>
         <v>9.9112482307577798E-2</v>
       </c>

--- a/data/データ.xlsx
+++ b/data/データ.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/okamotoyuuyuu/Documents/GitHub/Sotsuron/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6B8C48-A858-2942-92A9-5D606D73B2B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2112A46-3EDC-4E42-920E-79BBE44439DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16720" yWindow="4860" windowWidth="28300" windowHeight="17440" xr2:uid="{E867D359-3C1C-9B45-BE03-55ED4DE73369}"/>
+    <workbookView xWindow="17760" yWindow="2280" windowWidth="28300" windowHeight="17440" xr2:uid="{E867D359-3C1C-9B45-BE03-55ED4DE73369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$I$13:$L$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t xml:space="preserve">cpu </t>
     <phoneticPr fontId="1"/>
@@ -131,12 +134,97 @@
     <t>GPU</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>offsc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macOS High Sierra(10.13.6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32GB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Intel Core i5 3.2GHz(4コア)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GT 775M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Chrome 71.0.3578.98(64ビット)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法1</t>
+    <rPh sb="0" eb="1">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理時間[s]</t>
+    <rPh sb="0" eb="4">
+      <t>ショリジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間比</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,6 +248,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ヒラギノ角ゴ Pro W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,12 +264,80 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -183,11 +346,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -205,6 +389,2431 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>処理1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5503-B346-8343-D9CA57921F8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>処理2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5503-B346-8343-D9CA57921F8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>処理3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5503-B346-8343-D9CA57921F8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>処理4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5503-B346-8343-D9CA57921F8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1767090447"/>
+        <c:axId val="1767270591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1767090447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>演算回数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>回</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767270591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1767270591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" baseline="0"/>
+                  <a:t>1000</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" baseline="0"/>
+                  <a:t>回演算するのに費やした時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" baseline="0"/>
+                  <a:t>[S]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="wordArtVertRtl" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1767090447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="eaVert"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CDAAB94D-4E32-A741-BE43-AE665D0E340E}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
+                        <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                        <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[値]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3CC2-8049-8A11-3710743ACF17}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                    <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>206.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.999999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CC2-8049-8A11-3710743ACF17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="398814208"/>
+        <c:axId val="398815888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="398814208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" i="0">
+                    <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                    <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                  </a:rPr>
+                  <a:t>手法</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398815888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398815888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398814208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>450738</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>136470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>940580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEF6372-A0FD-154C-AF23-DD4019629E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>844550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EF473B-52EB-6845-931C-6E930C250E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,30 +3113,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A06FB-DBD4-3147-854E-6F1A944C0E20}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:17">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -547,16 +3158,28 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -579,16 +3202,28 @@
         <v>16436.853299999999</v>
       </c>
       <c r="I3">
+        <v>20.5</v>
+      </c>
+      <c r="J3">
+        <v>12.7</v>
+      </c>
+      <c r="K3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L3">
+        <v>10.3</v>
+      </c>
+      <c r="N3">
         <v>10381.6481933593</v>
       </c>
-      <c r="J3">
+      <c r="O3">
         <v>10404.6770019531</v>
       </c>
-      <c r="K3">
+      <c r="P3">
         <v>12715.7868652343</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -611,16 +3246,28 @@
         <v>16436.857179999999</v>
       </c>
       <c r="I4">
+        <v>20.5</v>
+      </c>
+      <c r="J4">
+        <v>12.6</v>
+      </c>
+      <c r="K4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N4">
         <v>9692.4970703125</v>
       </c>
-      <c r="J4">
+      <c r="O4">
         <v>9574.8271484375</v>
       </c>
-      <c r="K4">
+      <c r="P4">
         <v>12551.251953125</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -643,16 +3290,28 @@
         <v>16436.86304</v>
       </c>
       <c r="I5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J5">
+        <v>12.8</v>
+      </c>
+      <c r="K5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N5">
         <v>9697.15576171875</v>
       </c>
-      <c r="J5">
+      <c r="O5">
         <v>9563.32177734375</v>
       </c>
-      <c r="K5" s="1">
+      <c r="P5" s="1">
         <v>12808.1708984375</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -674,18 +3333,31 @@
       <c r="G6" s="1">
         <v>16436.880369999999</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N6">
         <v>9708.85400390625</v>
       </c>
-      <c r="J6">
+      <c r="O6">
         <v>9622.921875</v>
       </c>
-      <c r="K6" s="1">
+      <c r="P6" s="1">
         <v>12851.2028808593</v>
       </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -707,18 +3379,31 @@
       <c r="G7" s="1">
         <v>16436.88452</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N7">
         <v>9728.57666015625</v>
       </c>
-      <c r="J7">
+      <c r="O7">
         <v>9642.23876953125</v>
       </c>
-      <c r="K7">
+      <c r="P7">
         <v>13027.2900390625</v>
       </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>6000</v>
       </c>
@@ -740,18 +3425,31 @@
       <c r="G8" s="1">
         <v>16436.88867</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="K8" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N8">
         <v>9729.5061035156195</v>
       </c>
-      <c r="J8">
+      <c r="O8">
         <v>9629.1999511718695</v>
       </c>
-      <c r="K8">
+      <c r="P8">
         <v>12879.598144531201</v>
       </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>7000</v>
       </c>
@@ -773,18 +3471,31 @@
       <c r="G9" s="1">
         <v>16436.89258</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N9">
         <v>9756.5559082031195</v>
       </c>
-      <c r="J9">
+      <c r="O9">
         <v>9685.5568847656195</v>
       </c>
-      <c r="K9" s="1">
+      <c r="P9" s="1">
         <v>12968.1750488281</v>
       </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>8000</v>
       </c>
@@ -806,18 +3517,31 @@
       <c r="G10" s="1">
         <v>16436.896479999999</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="J10" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N10">
         <v>9798.16796875</v>
       </c>
-      <c r="J10">
+      <c r="O10">
         <v>9753.3332519531195</v>
       </c>
-      <c r="K10" s="1">
+      <c r="P10" s="1">
         <v>13360.7067871093</v>
       </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>9000</v>
       </c>
@@ -839,18 +3563,31 @@
       <c r="G11" s="1">
         <v>16436.899410000002</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="K11" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N11">
         <v>9801.541015625</v>
       </c>
-      <c r="J11">
+      <c r="O11">
         <v>9708.7399902343695</v>
       </c>
-      <c r="K11" s="1">
+      <c r="P11" s="1">
         <v>12847.179199218701</v>
       </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -872,18 +3609,31 @@
       <c r="G12" s="1">
         <v>16436.90454</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="J12" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N12">
         <v>9800.2919921875</v>
       </c>
-      <c r="J12">
+      <c r="O12">
         <v>9686.0202636718695</v>
       </c>
-      <c r="K12" s="1">
+      <c r="P12" s="1">
         <v>12643.6008300781</v>
       </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -913,18 +3663,34 @@
       </c>
       <c r="I13">
         <f>SUM(I3:I12)</f>
-        <v>98094.794677734288</v>
+        <v>206.3</v>
       </c>
       <c r="J13">
         <f>SUM(J3:J12)</f>
-        <v>97270.836914062456</v>
+        <v>128.6</v>
       </c>
       <c r="K13">
         <f>SUM(K3:K12)</f>
+        <v>164.00000000000003</v>
+      </c>
+      <c r="L13">
+        <f>SUM(L3:L12)</f>
+        <v>97.999999999999986</v>
+      </c>
+      <c r="N13">
+        <f>SUM(N3:N12)</f>
+        <v>98094.794677734288</v>
+      </c>
+      <c r="O13">
+        <f>SUM(O3:O12)</f>
+        <v>97270.836914062456</v>
+      </c>
+      <c r="P13">
+        <f>SUM(P3:P12)</f>
         <v>128652.96264648401</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -952,16 +3718,16 @@
         <f>G13/10000</f>
         <v>16.436882008999998</v>
       </c>
-      <c r="I14">
-        <f>I13/10000</f>
+      <c r="N14">
+        <f>N13/10000</f>
         <v>9.8094794677734285</v>
       </c>
-      <c r="J14">
-        <f>J13/10000</f>
+      <c r="O14">
+        <f>O13/10000</f>
         <v>9.7270836914062464</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -989,19 +3755,35 @@
         <v>0.79555669687395514</v>
       </c>
       <c r="I15">
-        <f>I13/B13</f>
+        <f>I13/I13</f>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f>J13/I13</f>
+        <v>0.62336403296170617</v>
+      </c>
+      <c r="K15">
+        <f>K13/I13</f>
+        <v>0.79495879786718382</v>
+      </c>
+      <c r="L15">
+        <f>L13/I13</f>
+        <v>0.4750363548230731</v>
+      </c>
+      <c r="N15">
+        <f>N13/B13</f>
         <v>0.47478573364228327</v>
       </c>
-      <c r="J15">
-        <f>J13/B13</f>
+      <c r="O15">
+        <f>O13/B13</f>
         <v>0.4707977198786541</v>
       </c>
-      <c r="K15">
-        <f>K13/B13</f>
+      <c r="P15">
+        <f>P13/B13</f>
         <v>0.62268942461254573</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1030,7 +3812,7 @@
         <v>1.7278500774461338E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1042,913 +3824,1035 @@
         <f>F13-G13</f>
         <v>-3.7172343785641715E-2</v>
       </c>
-      <c r="I17">
-        <f>I13-J13</f>
+      <c r="N17">
+        <f>N13-O13</f>
         <v>823.95776367183134</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="B20" t="s">
+    <row r="21" spans="1:15">
+      <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>4</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
+    <row r="22" spans="1:15">
+      <c r="A22">
         <v>1000</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>20680.105957031199</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>17275.3391113281</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>16769.0998535156</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>16788.1770019531</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>13864.3410644531</v>
       </c>
-      <c r="G21">
-        <f>SUM(F21,J21)</f>
+      <c r="G22">
+        <f>SUM(F22,O22)</f>
         <v>13864.3449707031</v>
       </c>
-      <c r="I21">
+      <c r="N22">
         <v>13864.3410644531</v>
       </c>
-      <c r="J21">
+      <c r="O22">
         <v>3.90625E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
+    <row r="23" spans="1:15">
+      <c r="A23">
         <v>2000</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>20608.0061035156</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>16696.9309082031</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>16684.479003906199</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>16682.615966796799</v>
       </c>
-      <c r="F22">
-        <f>SUM(G21,I22)</f>
+      <c r="F23">
+        <f>SUM(G22,N23)</f>
         <v>13864.346679687475</v>
       </c>
-      <c r="G22">
-        <f>SUM(F22,J22)</f>
+      <c r="G23">
+        <f>SUM(F23,O23)</f>
         <v>13864.348632812475</v>
       </c>
-      <c r="I22">
+      <c r="N23">
         <v>1.708984375E-3</v>
       </c>
-      <c r="J22">
+      <c r="O23">
         <v>1.953125E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
+    <row r="24" spans="1:15">
+      <c r="A24">
         <v>3000</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>20430.4221191406</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>16697.033935546799</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>16675.4482421875</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>16674.528808593699</v>
       </c>
-      <c r="F23">
-        <f>SUM(G22,I23)</f>
+      <c r="F24">
+        <f>SUM(G23,N24)</f>
         <v>13864.3518066406</v>
       </c>
-      <c r="G23">
-        <f>SUM(F23,J23)</f>
+      <c r="G24">
+        <f>SUM(F24,O24)</f>
         <v>13864.353515624975</v>
       </c>
-      <c r="I23">
+      <c r="N24">
         <v>3.173828125E-3</v>
       </c>
-      <c r="J23">
+      <c r="O24">
         <v>1.708984375E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
+    <row r="25" spans="1:15">
+      <c r="A25">
         <v>4000</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>20380.16015625</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>16680.5090332031</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>16680.106933593699</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>16682.490234375</v>
       </c>
-      <c r="F24">
-        <f>SUM(G23,I24)</f>
+      <c r="F25">
+        <f>SUM(G24,N25)</f>
         <v>13864.355468749975</v>
       </c>
-      <c r="G24">
-        <f>SUM(F24,J24)</f>
+      <c r="G25">
+        <f>SUM(F25,O25)</f>
         <v>13864.357421874975</v>
       </c>
-      <c r="I24">
+      <c r="N25">
         <v>1.953125E-3</v>
       </c>
-      <c r="J24">
+      <c r="O25">
         <v>1.953125E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
+    <row r="26" spans="1:15">
+      <c r="A26">
         <v>5000</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>20485.5568847656</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>16679.387207031199</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>16681.7919921875</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>16679.2900390625</v>
       </c>
-      <c r="F25">
-        <f>SUM(G24,I25)</f>
+      <c r="F26">
+        <f>SUM(G25,N26)</f>
         <v>13864.363281249975</v>
       </c>
-      <c r="G25">
-        <f>SUM(F25,J25)</f>
+      <c r="G26">
+        <f>SUM(F26,O26)</f>
         <v>13864.36499023435</v>
       </c>
-      <c r="I25">
+      <c r="N26">
         <v>5.859375E-3</v>
       </c>
-      <c r="J25">
+      <c r="O26">
         <v>1.708984375E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
+    <row r="27" spans="1:15">
+      <c r="A27">
         <v>6000</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>20572.4719238281</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>16680.6350097656</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>16678.29296875</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>16681.180175781199</v>
       </c>
-      <c r="F26">
-        <f>SUM(F25,I26)</f>
+      <c r="F27">
+        <f>SUM(F26,N27)</f>
         <v>13864.365234374975</v>
       </c>
-      <c r="G26">
-        <f>SUM(F27,J26)</f>
+      <c r="G27">
+        <f>SUM(F28,O27)</f>
         <v>13864.3693847656</v>
       </c>
-      <c r="I26">
+      <c r="N27">
         <v>1.953125E-3</v>
       </c>
-      <c r="J26">
+      <c r="O27">
         <v>2.197265625E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
+    <row r="28" spans="1:15">
+      <c r="A28">
         <v>7000</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>20444.803222656199</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>16680.4279785156</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>16679.0842285156</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>16679.3146972656</v>
       </c>
-      <c r="F27">
-        <f>SUM(F26,I27)</f>
+      <c r="F28">
+        <f>SUM(F27,N28)</f>
         <v>13864.367187499975</v>
       </c>
-      <c r="G27">
-        <f>SUM(F28,J27)</f>
+      <c r="G28">
+        <f>SUM(F29,O28)</f>
         <v>13864.374511718725</v>
       </c>
-      <c r="I27">
+      <c r="N28">
         <v>1.953125E-3</v>
       </c>
-      <c r="J27">
+      <c r="O28">
         <v>2.197265625E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
+    <row r="29" spans="1:15">
+      <c r="A29">
         <v>8000</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>20626.725341796799</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>16679.199951171799</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>16682.6711425781</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>16681.438232421799</v>
       </c>
-      <c r="F28">
-        <f>SUM(G26,I28)</f>
+      <c r="F29">
+        <f>SUM(G27,N29)</f>
         <v>13864.3723144531</v>
       </c>
-      <c r="G28">
-        <f>SUM(F29,J28)</f>
+      <c r="G29">
+        <f>SUM(F30,O29)</f>
         <v>13864.379394531225</v>
       </c>
-      <c r="I28">
+      <c r="N29">
         <v>2.9296875E-3</v>
       </c>
-      <c r="J28">
+      <c r="O29">
         <v>2.9296875E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
+    <row r="30" spans="1:15">
+      <c r="A30">
         <v>9000</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>20830.968261718699</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>16697.4240722656</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>16678.1760253906</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>16678.907714843699</v>
       </c>
-      <c r="F29">
-        <f>SUM(G27,I29)</f>
+      <c r="F30">
+        <f>SUM(G28,N30)</f>
         <v>13864.376464843725</v>
       </c>
-      <c r="G29">
-        <f>SUM(F30,J29)</f>
+      <c r="G30">
+        <f>SUM(F31,O30)</f>
         <v>13864.3830566406</v>
       </c>
-      <c r="I29">
+      <c r="N30">
         <v>1.953125E-3</v>
       </c>
-      <c r="J29">
+      <c r="O30">
         <v>1.708984375E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
+    <row r="31" spans="1:15">
+      <c r="A31">
         <v>10000</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>20759.4638671875</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>16680.609863281199</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>16680.096191406199</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>16680.410888671799</v>
       </c>
-      <c r="F30">
-        <f>SUM(G28,I30)</f>
+      <c r="F31">
+        <f>SUM(G29,N31)</f>
         <v>13864.381347656225</v>
       </c>
-      <c r="G30">
-        <f>SUM(J30,G29,I31)</f>
+      <c r="G31">
+        <f>SUM(O31,G30,N32)</f>
         <v>13864.387695312475</v>
       </c>
-      <c r="I30">
+      <c r="N31">
         <v>1.953125E-3</v>
       </c>
-      <c r="J30">
+      <c r="O31">
         <v>2.9296875E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="I31">
+    <row r="32" spans="1:15">
+      <c r="N32">
         <v>1.708984375E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
+    <row r="33" spans="1:24">
+      <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B32">
-        <f>SUM(B21:B31)</f>
+      <c r="B33">
+        <f>SUM(B22:B32)</f>
         <v>205818.68383789028</v>
       </c>
-      <c r="C32">
-        <f>SUM(C21:C31)</f>
+      <c r="C33">
+        <f>SUM(C22:C32)</f>
         <v>167447.49707031206</v>
       </c>
-      <c r="D32">
-        <f>SUM(D21:D30)</f>
+      <c r="D33">
+        <f>SUM(D22:D31)</f>
         <v>166889.24658203099</v>
       </c>
-      <c r="E32">
-        <f>SUM(E21:E31)</f>
+      <c r="E33">
+        <f>SUM(E22:E32)</f>
         <v>166908.35375976516</v>
       </c>
-      <c r="F32">
-        <f>SUM(F21:F30)</f>
+      <c r="F33">
+        <f>SUM(F22:F31)</f>
         <v>138643.62084960911</v>
       </c>
-      <c r="G32">
-        <f>SUM(G21:G30)</f>
+      <c r="G33">
+        <f>SUM(G22:G31)</f>
         <v>138643.66357421849</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
+    <row r="34" spans="1:24">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B33">
-        <f t="shared" ref="B33:G33" si="3">B32/10000</f>
+      <c r="B34">
+        <f t="shared" ref="B34:G34" si="3">B33/10000</f>
         <v>20.581868383789029</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <f t="shared" si="3"/>
         <v>16.744749707031207</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <f t="shared" si="3"/>
         <v>16.688924658203099</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <f t="shared" si="3"/>
         <v>16.690835375976516</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <f t="shared" si="3"/>
         <v>13.864362084960911</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <f t="shared" si="3"/>
         <v>13.864366357421849</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
+    <row r="35" spans="1:24">
+      <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C34">
-        <f>C32/B32</f>
+      <c r="C35">
+        <f>C33/B33</f>
         <v>0.81356801019191893</v>
       </c>
-      <c r="D34">
-        <f>D32/B32</f>
+      <c r="D35">
+        <f>D33/B33</f>
         <v>0.81085566902895256</v>
       </c>
-      <c r="E34">
-        <f>E32/B32</f>
+      <c r="E35">
+        <f>E33/B33</f>
         <v>0.81094850403002183</v>
       </c>
-      <c r="F34">
-        <f>F32/B32</f>
+      <c r="F35">
+        <f>F33/B33</f>
         <v>0.67362018969477766</v>
       </c>
-      <c r="G34">
-        <f>G32/B32</f>
+      <c r="G35">
+        <f>G33/B33</f>
         <v>0.6736203972785042</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
+      <c r="R35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W35" t="s">
+        <v>33</v>
+      </c>
+      <c r="X35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" t="s">
         <v>12</v>
       </c>
-      <c r="B35">
-        <f t="shared" ref="B35:G35" si="4">_xlfn.STDEV.P(B21:B30)</f>
+      <c r="B36">
+        <f t="shared" ref="B36:G36" si="4">_xlfn.STDEV.P(B22:B31)</f>
         <v>140.60941988787388</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <f t="shared" si="4"/>
         <v>177.02713176859476</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f t="shared" si="4"/>
         <v>26.833775422000755</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <f t="shared" si="4"/>
         <v>32.522277655588418</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <f t="shared" si="4"/>
         <v>1.2443725752986506E-2</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <f t="shared" si="4"/>
         <v>1.4134962096620577E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
+      <c r="R36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W36">
+        <v>206.6</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="R37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V37" t="s">
+        <v>29</v>
+      </c>
+      <c r="W37">
+        <v>128.6</v>
+      </c>
+      <c r="X37">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="B38" t="s">
+      <c r="R38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V38" t="s">
+        <v>30</v>
+      </c>
+      <c r="W38">
+        <v>164.3</v>
+      </c>
+      <c r="X38">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="B39" t="s">
         <v>0</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>3</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>4</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39">
+      <c r="R39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V39" t="s">
+        <v>31</v>
+      </c>
+      <c r="W39">
+        <v>98</v>
+      </c>
+      <c r="X39">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40">
         <v>1000</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>20646.6359863281</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>17020.234130859299</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>16765.0207519531</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>16765.196044921799</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>12365.315917968701</v>
       </c>
-      <c r="G39">
-        <f>SUM(F39,J39)</f>
+      <c r="G40">
+        <f>SUM(F40,O40)</f>
         <v>12365.318115234326</v>
       </c>
-      <c r="I39">
+      <c r="N40">
         <v>12365.315917968701</v>
       </c>
-      <c r="J39">
+      <c r="O40">
         <v>2.197265625E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40">
+    <row r="41" spans="1:24">
+      <c r="A41">
         <v>2000</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>20462.695068359299</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>16696.689208984299</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>16684.100097656199</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>16685.4260253906</v>
       </c>
-      <c r="F40">
-        <f>SUM(G39,I40)</f>
+      <c r="F41">
+        <f>SUM(G40,N41)</f>
         <v>12365.320068359326</v>
       </c>
-      <c r="G40">
-        <f>SUM(F40,J40)</f>
+      <c r="G41">
+        <f>SUM(F41,O41)</f>
         <v>12365.322753906201</v>
       </c>
-      <c r="I40">
+      <c r="N41">
         <v>1.953125E-3</v>
       </c>
-      <c r="J40">
+      <c r="O41">
         <v>2.685546875E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41">
+    <row r="42" spans="1:24">
+      <c r="A42">
         <v>3000</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>20439.8830566406</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>16696.6572265625</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>16675.940917968699</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>16675.481933593699</v>
       </c>
-      <c r="F41">
-        <f>SUM(G40,I41)</f>
+      <c r="F42">
+        <f>SUM(G41,N42)</f>
         <v>12365.324707031201</v>
       </c>
-      <c r="G41">
-        <f>SUM(F41,J41)</f>
+      <c r="G42">
+        <f>SUM(F42,O42)</f>
         <v>12365.327880859326</v>
       </c>
-      <c r="I41">
+      <c r="N42">
         <v>1.953125E-3</v>
       </c>
-      <c r="J41">
+      <c r="O42">
         <v>3.173828125E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42">
+      <c r="R42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S42" t="s">
+        <v>33</v>
+      </c>
+      <c r="T42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43">
         <v>4000</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>20488.8039550781</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>16696.6376953125</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>16679.7509765625</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>16680.905761718699</v>
       </c>
-      <c r="F42">
-        <f>SUM(G41,I42)</f>
+      <c r="F43">
+        <f>SUM(G42,N43)</f>
         <v>12365.329833984326</v>
       </c>
-      <c r="G42">
-        <f>SUM(F42,J42)</f>
+      <c r="G43">
+        <f>SUM(F43,O43)</f>
         <v>12365.332763671826</v>
       </c>
-      <c r="I42">
+      <c r="N43">
         <v>1.953125E-3</v>
       </c>
-      <c r="J42">
+      <c r="O43">
         <v>2.9296875E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
+      <c r="R43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S43">
+        <v>206.6</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44">
         <v>5000</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>20658.041015625</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>16697.028076171799</v>
       </c>
-      <c r="D43">
+      <c r="D44">
         <v>16680.4140625</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>16678.4221191406</v>
       </c>
-      <c r="F43">
-        <f>SUM(G42,I43)</f>
+      <c r="F44">
+        <f>SUM(G43,N44)</f>
         <v>12365.334960937451</v>
       </c>
-      <c r="G43">
-        <f>SUM(F43,J43)</f>
+      <c r="G44">
+        <f>SUM(F44,O44)</f>
         <v>12365.335937499951</v>
       </c>
-      <c r="I43">
+      <c r="N44">
         <v>2.197265625E-3</v>
       </c>
-      <c r="J43">
+      <c r="O44">
         <v>9.765625E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
+      <c r="R44" t="s">
+        <v>29</v>
+      </c>
+      <c r="S44">
+        <v>128.6</v>
+      </c>
+      <c r="T44">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45">
         <v>6000</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>20584.5920410156</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>16697.3291015625</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>16680.417724609299</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>16679.989990234299</v>
       </c>
-      <c r="F44">
-        <f>SUM(G43,I44)</f>
+      <c r="F45">
+        <f>SUM(G44,N45)</f>
         <v>12365.337890624951</v>
       </c>
-      <c r="G44">
-        <f>SUM(F45,J44)</f>
+      <c r="G45">
+        <f>SUM(F46,O45)</f>
         <v>12365.341796874951</v>
       </c>
-      <c r="I44">
+      <c r="N45">
         <v>1.953125E-3</v>
       </c>
-      <c r="J44">
+      <c r="O45">
         <v>2.9296875E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45">
+      <c r="R45" t="s">
+        <v>30</v>
+      </c>
+      <c r="S45">
+        <v>164.3</v>
+      </c>
+      <c r="T45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46">
         <v>7000</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>20820.236816406199</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>16696.78125</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>16678.272949218699</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>16679.25</v>
       </c>
-      <c r="F45">
-        <f>SUM(F44,I45)</f>
+      <c r="F46">
+        <f>SUM(F45,N46)</f>
         <v>12365.338867187451</v>
       </c>
-      <c r="G45">
-        <f>SUM(F46,J45)</f>
+      <c r="G46">
+        <f>SUM(F47,O46)</f>
         <v>12365.448242187451</v>
       </c>
-      <c r="I45">
+      <c r="N46">
         <v>9.765625E-4</v>
       </c>
-      <c r="J45">
+      <c r="O46">
         <v>1.220703125E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46">
+      <c r="R46" t="s">
+        <v>31</v>
+      </c>
+      <c r="S46">
+        <v>98</v>
+      </c>
+      <c r="T46">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47">
         <v>8000</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>20641.4182128906</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>16696.5549316406</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>16682.4777832031</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>16682.7590332031</v>
       </c>
-      <c r="F46">
-        <f>SUM(G44,I47)</f>
+      <c r="F47">
+        <f>SUM(G45,N48)</f>
         <v>12365.436035156201</v>
       </c>
-      <c r="G46">
-        <f>SUM(F47,J46)</f>
+      <c r="G47">
+        <f>SUM(F48,O47)</f>
         <v>12365.544433593701</v>
       </c>
-      <c r="I46">
+      <c r="N47">
         <v>3.173828125E-3</v>
       </c>
-      <c r="J46">
+      <c r="O47">
         <v>1.953125E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47">
+    <row r="48" spans="1:24">
+      <c r="A48">
         <v>9000</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>20859.518066406199</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>16697.193115234299</v>
       </c>
-      <c r="D47">
+      <c r="D48">
         <v>16678.2919921875</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>16677.374755859299</v>
       </c>
-      <c r="F47">
-        <f>SUM(G45,I47)</f>
+      <c r="F48">
+        <f>SUM(G46,N48)</f>
         <v>12365.542480468701</v>
       </c>
-      <c r="G47">
-        <f>SUM(F48,J47)</f>
+      <c r="G48">
+        <f>SUM(F49,O48)</f>
         <v>12365.548095703076</v>
       </c>
-      <c r="I47">
+      <c r="N48">
         <v>9.423828125E-2</v>
       </c>
-      <c r="J47">
+      <c r="O48">
         <v>2.9296875E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48">
+    <row r="49" spans="1:15">
+      <c r="A49">
         <v>10000</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>20674.106933593699</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>16695.645019531199</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>16681.5500488281</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>16681.3740234375</v>
       </c>
-      <c r="F48">
-        <f>SUM(G46,I48)</f>
+      <c r="F49">
+        <f>SUM(G47,N49)</f>
         <v>12365.545166015576</v>
       </c>
-      <c r="G48">
-        <f>SUM(G47,I49,J48)</f>
+      <c r="G49">
+        <f>SUM(G48,N50,O49)</f>
         <v>12365.554199218701</v>
       </c>
-      <c r="I48">
+      <c r="N49">
         <v>7.32421875E-4</v>
       </c>
-      <c r="J48">
+      <c r="O49">
         <v>3.173828125E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
         <v>9</v>
       </c>
-      <c r="B49">
-        <f t="shared" ref="B49:G49" si="5">SUM(B39:B48)</f>
+      <c r="B50">
+        <f t="shared" ref="B50:G50" si="5">SUM(B40:B49)</f>
         <v>206275.93115234337</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <f t="shared" si="5"/>
         <v>167290.749755859</v>
       </c>
-      <c r="D49">
+      <c r="D50">
         <f t="shared" si="5"/>
         <v>166886.23730468721</v>
       </c>
-      <c r="E49">
+      <c r="E50">
         <f t="shared" si="5"/>
         <v>166886.17968749959</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <f t="shared" si="5"/>
         <v>123653.82592773391</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <f t="shared" si="5"/>
         <v>123654.07421874953</v>
       </c>
-      <c r="I49">
+      <c r="N50">
         <v>2.9296875E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
+    <row r="51" spans="1:15">
+      <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B50">
-        <f t="shared" ref="B50:G50" si="6">B49/10000</f>
+      <c r="B51">
+        <f t="shared" ref="B51:G51" si="6">B50/10000</f>
         <v>20.627593115234337</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <f t="shared" si="6"/>
         <v>16.729074975585899</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <f t="shared" si="6"/>
         <v>16.68862373046872</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <f t="shared" si="6"/>
         <v>16.688617968749959</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <f t="shared" si="6"/>
         <v>12.365382592773392</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <f t="shared" si="6"/>
         <v>12.365407421874954</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>1</v>
       </c>
-      <c r="C51">
-        <f>C49/B49</f>
+      <c r="C52">
+        <f>C50/B50</f>
         <v>0.81100470045779505</v>
       </c>
-      <c r="D51">
-        <f>D49/B49</f>
+      <c r="D52">
+        <f>D50/B50</f>
         <v>0.80904367452077952</v>
       </c>
-      <c r="E51">
-        <f>E49/B49</f>
+      <c r="E52">
+        <f>E50/B50</f>
         <v>0.80904339519983648</v>
       </c>
-      <c r="F51">
-        <f>F49/B49</f>
+      <c r="F52">
+        <f>F50/B50</f>
         <v>0.5994583334902529</v>
       </c>
-      <c r="G51">
-        <f>G49/B49</f>
+      <c r="G52">
+        <f>G50/B50</f>
         <v>0.59945953717414491</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B52">
-        <f t="shared" ref="B52:G52" si="7">_xlfn.STDEV.P(B39:B48)</f>
+      <c r="B53">
+        <f t="shared" ref="B53:G53" si="7">_xlfn.STDEV.P(B40:B49)</f>
         <v>133.44778308381015</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <f t="shared" si="7"/>
         <v>97.054024343382466</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <f t="shared" si="7"/>
         <v>25.559690821216577</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <f t="shared" si="7"/>
         <v>25.662797423643006</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <f t="shared" si="7"/>
         <v>8.6901268178072852E-2</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <f t="shared" si="7"/>
         <v>9.9112482307577798E-2</v>
       </c>
@@ -1956,5 +4860,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/データ.xlsx
+++ b/data/データ.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/okamotoyuuyuu/Documents/GitHub/Sotsuron/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2112A46-3EDC-4E42-920E-79BBE44439DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D2CB97-1C8A-0642-B584-A2668A774AD1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="2280" windowWidth="28300" windowHeight="17440" xr2:uid="{E867D359-3C1C-9B45-BE03-55ED4DE73369}"/>
+    <workbookView xWindow="3000" yWindow="2480" windowWidth="28300" windowHeight="17440" xr2:uid="{E867D359-3C1C-9B45-BE03-55ED4DE73369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$I$13:$L$13</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t xml:space="preserve">cpu </t>
     <phoneticPr fontId="1"/>
@@ -217,6 +214,50 @@
     <rPh sb="0" eb="3">
       <t>ジカンヒ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法1</t>
+    <rPh sb="0" eb="2">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法2</t>
+    <rPh sb="0" eb="2">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法3</t>
+    <rPh sb="0" eb="2">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法4</t>
+    <rPh sb="0" eb="2">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3113,10 +3154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A06FB-DBD4-3147-854E-6F1A944C0E20}">
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="65" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4857,6 +4898,81 @@
         <v>9.9112482307577798E-2</v>
       </c>
     </row>
+    <row r="55" spans="1:15">
+      <c r="K55" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" t="s">
+        <v>37</v>
+      </c>
+      <c r="N55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="J56" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56">
+        <v>11</v>
+      </c>
+      <c r="L56">
+        <v>11</v>
+      </c>
+      <c r="M56">
+        <v>21</v>
+      </c>
+      <c r="N56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="J57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57">
+        <v>50</v>
+      </c>
+      <c r="L57">
+        <v>184</v>
+      </c>
+      <c r="M57">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="L60" t="s">
+        <v>41</v>
+      </c>
+      <c r="N60">
+        <v>40</v>
+      </c>
+      <c r="O60">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="L61" t="s">
+        <v>41</v>
+      </c>
+      <c r="O61">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="L62" t="s">
+        <v>42</v>
+      </c>
+      <c r="N62">
+        <v>43</v>
+      </c>
+      <c r="O62">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/データ.xlsx
+++ b/data/データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/okamotoyuuyuu/Documents/GitHub/Sotsuron/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D2CB97-1C8A-0642-B584-A2668A774AD1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53D71C2-C9AE-804E-B77A-E2C5963781DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2480" windowWidth="28300" windowHeight="17440" xr2:uid="{E867D359-3C1C-9B45-BE03-55ED4DE73369}"/>
+    <workbookView xWindow="17600" yWindow="4600" windowWidth="28300" windowHeight="17440" xr2:uid="{E867D359-3C1C-9B45-BE03-55ED4DE73369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1282,42 +1282,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CDAAB94D-4E32-A741-BE43-AE665D0E340E}" type="VALUE">
-                      <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="0" i="0">
-                        <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-                        <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[値]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-3CC2-8049-8A11-3710743ACF17}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1332,22 +1296,21 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-                    <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1398,12 +1361,11 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3CC2-8049-8A11-3710743ACF17}"/>
+              <c16:uniqueId val="{00000000-7C3A-D44D-B9BA-C66D0966CA2E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1413,11 +1375,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="398814208"/>
-        <c:axId val="398815888"/>
+        <c:axId val="1874153343"/>
+        <c:axId val="1874463263"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="398814208"/>
+        <c:axId val="1874153343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,10 +1405,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400" b="0" i="0">
-                    <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-                    <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-                  </a:rPr>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
                   <a:t>手法</a:t>
                 </a:r>
               </a:p>
@@ -1481,18 +1440,14 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1503,22 +1458,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398815888"/>
+        <c:crossAx val="1874463263"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1526,7 +1481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398815888"/>
+        <c:axId val="1874463263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,22 +1521,22 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
                   <a:t>時間</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
                   <a:t>[</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
                   <a:t>秒</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
                   <a:t>]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1615,13 +1570,15 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1630,22 +1587,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="Hiragino Kaku Gothic Pro W3" panose="020B0300000000000000" pitchFamily="34" charset="-128"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398814208"/>
+        <c:crossAx val="1874153343"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1659,6 +1616,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2820,23 +2784,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>844550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>184091</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>183860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>235357</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107427</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
+        <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EF473B-52EB-6845-931C-6E930C250E7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5112A488-A3A2-934B-B508-28ED67D5F8C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2A06FB-DBD4-3147-854E-6F1A944C0E20}">
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="65" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
